--- a/05_Entregable 3/previo/Dominio de Valores/DdV_18_UPMA_RESCATE DE FAUNA SILVESTRE 2019 AL 2024.xlsx
+++ b/05_Entregable 3/previo/Dominio de Valores/DdV_18_UPMA_RESCATE DE FAUNA SILVESTRE 2019 AL 2024.xlsx
@@ -6,18 +6,18 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="DOCUMENTO DE RESPALDO_Hoja1" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="ZONA_Hoja1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="SUB ZONA_Hoja1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="CANTON_Hoja1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CODIGO SUBCIRCUITO_Hoja1" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="DISTRITO_Hoja1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="CIRCUITO_Hoja1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="SUBCIRCUITO_Hoja1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet name="TIPO DE OPERATIVO_Hoja1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet name="CATEGORIA_Hoja1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet name="SUB CATEGORIA_Hoja1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet name="MEDIDA_Hoja1" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet name="documento_respaldo_Hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="nzona_Hoja1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="nsub_zona_Hoja1" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="ncanton_Hoja1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="sub_circuito_Hoja1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="ndistrito_Hoja1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="ncircuito_Hoja1" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet name="nsub_circuito_Hoja1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet name="tipo_oeprativo_Hoja1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet name="categoria_Hoja1" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet name="sub_categoria_Hoja1" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet name="nro_total_2_Hoja1" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
 </workbook>
 </file>
